--- a/variant_20/Задание 9/9.xlsx
+++ b/variant_20/Задание 9/9.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="144525"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,15 +33,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -74,13 +82,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -387,21 +397,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G74" workbookViewId="0">
+      <selection activeCell="M94" sqref="M94"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +490,7 @@
         <v>0.95833333333333304</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43191</v>
       </c>
@@ -555,7 +567,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43192</v>
       </c>
@@ -632,7 +644,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43193</v>
       </c>
@@ -709,7 +721,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43194</v>
       </c>
@@ -786,7 +798,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43195</v>
       </c>
@@ -863,7 +875,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43196</v>
       </c>
@@ -940,7 +952,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43197</v>
       </c>
@@ -1017,7 +1029,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43198</v>
       </c>
@@ -1094,7 +1106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43199</v>
       </c>
@@ -1171,7 +1183,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43200</v>
       </c>
@@ -1248,7 +1260,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43201</v>
       </c>
@@ -1325,7 +1337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43202</v>
       </c>
@@ -1402,7 +1414,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43203</v>
       </c>
@@ -1479,7 +1491,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43204</v>
       </c>
@@ -1556,7 +1568,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43205</v>
       </c>
@@ -1633,7 +1645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43206</v>
       </c>
@@ -1710,7 +1722,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43207</v>
       </c>
@@ -1787,7 +1799,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43208</v>
       </c>
@@ -1864,7 +1876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43209</v>
       </c>
@@ -1941,7 +1953,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43210</v>
       </c>
@@ -2018,7 +2030,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43211</v>
       </c>
@@ -2095,7 +2107,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43212</v>
       </c>
@@ -2172,7 +2184,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43213</v>
       </c>
@@ -2249,7 +2261,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43214</v>
       </c>
@@ -2326,7 +2338,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43215</v>
       </c>
@@ -2403,7 +2415,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43216</v>
       </c>
@@ -2480,7 +2492,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43217</v>
       </c>
@@ -2557,7 +2569,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43218</v>
       </c>
@@ -2634,7 +2646,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43219</v>
       </c>
@@ -2711,7 +2723,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43220</v>
       </c>
@@ -2788,7 +2800,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43221</v>
       </c>
@@ -2819,16 +2831,16 @@
       <c r="J32" s="4">
         <v>23.2</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="6">
         <v>22</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="6">
         <v>25.8</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="6">
         <v>24.1</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="6">
         <v>25</v>
       </c>
       <c r="O32" s="4">
@@ -2865,7 +2877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43222</v>
       </c>
@@ -2896,16 +2908,16 @@
       <c r="J33" s="4">
         <v>23.1</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="6">
         <v>23.7</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="6">
         <v>25.2</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33" s="6">
         <v>25.7</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33" s="6">
         <v>26.2</v>
       </c>
       <c r="O33" s="4">
@@ -2942,7 +2954,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43223</v>
       </c>
@@ -2973,16 +2985,16 @@
       <c r="J34" s="4">
         <v>23.1</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="6">
         <v>25.1</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="6">
         <v>26.7</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34" s="6">
         <v>24</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N34" s="6">
         <v>25.7</v>
       </c>
       <c r="O34" s="4">
@@ -3019,7 +3031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43224</v>
       </c>
@@ -3050,16 +3062,16 @@
       <c r="J35" s="4">
         <v>23.4</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="6">
         <v>23.1</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="6">
         <v>24.3</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35" s="6">
         <v>25.6</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35" s="6">
         <v>26.3</v>
       </c>
       <c r="O35" s="4">
@@ -3096,7 +3108,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43225</v>
       </c>
@@ -3127,16 +3139,16 @@
       <c r="J36" s="4">
         <v>21.4</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="6">
         <v>22.8</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L36" s="6">
         <v>24.4</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M36" s="6">
         <v>27.2</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N36" s="6">
         <v>26.8</v>
       </c>
       <c r="O36" s="4">
@@ -3173,7 +3185,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43226</v>
       </c>
@@ -3204,16 +3216,16 @@
       <c r="J37" s="4">
         <v>20.8</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="6">
         <v>23.6</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37" s="6">
         <v>23.6</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37" s="6">
         <v>27.2</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N37" s="6">
         <v>26.4</v>
       </c>
       <c r="O37" s="4">
@@ -3250,7 +3262,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43227</v>
       </c>
@@ -3281,16 +3293,16 @@
       <c r="J38" s="4">
         <v>20.5</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="6">
         <v>22</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="6">
         <v>24.4</v>
       </c>
-      <c r="M38" s="4">
+      <c r="M38" s="6">
         <v>25.5</v>
       </c>
-      <c r="N38" s="4">
+      <c r="N38" s="6">
         <v>28.1</v>
       </c>
       <c r="O38" s="4">
@@ -3327,7 +3339,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43228</v>
       </c>
@@ -3358,16 +3370,16 @@
       <c r="J39" s="4">
         <v>23.1</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="6">
         <v>22.6</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="6">
         <v>24</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M39" s="6">
         <v>27.1</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N39" s="6">
         <v>25.6</v>
       </c>
       <c r="O39" s="4">
@@ -3404,7 +3416,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43229</v>
       </c>
@@ -3435,16 +3447,16 @@
       <c r="J40" s="4">
         <v>22.5</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="6">
         <v>22.9</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L40" s="6">
         <v>26</v>
       </c>
-      <c r="M40" s="4">
+      <c r="M40" s="6">
         <v>27</v>
       </c>
-      <c r="N40" s="4">
+      <c r="N40" s="6">
         <v>27.3</v>
       </c>
       <c r="O40" s="4">
@@ -3481,7 +3493,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43230</v>
       </c>
@@ -3512,16 +3524,16 @@
       <c r="J41" s="4">
         <v>21.4</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="6">
         <v>25.2</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L41" s="6">
         <v>23.9</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M41" s="6">
         <v>25.3</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N41" s="6">
         <v>26.3</v>
       </c>
       <c r="O41" s="4">
@@ -3558,7 +3570,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43231</v>
       </c>
@@ -3589,16 +3601,16 @@
       <c r="J42" s="4">
         <v>20.100000000000001</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="6">
         <v>23.9</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L42" s="6">
         <v>25.7</v>
       </c>
-      <c r="M42" s="4">
+      <c r="M42" s="6">
         <v>25.6</v>
       </c>
-      <c r="N42" s="4">
+      <c r="N42" s="6">
         <v>25</v>
       </c>
       <c r="O42" s="4">
@@ -3635,7 +3647,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43232</v>
       </c>
@@ -3666,16 +3678,16 @@
       <c r="J43" s="4">
         <v>23.4</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="6">
         <v>25</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L43" s="6">
         <v>26.3</v>
       </c>
-      <c r="M43" s="4">
+      <c r="M43" s="6">
         <v>25.7</v>
       </c>
-      <c r="N43" s="4">
+      <c r="N43" s="6">
         <v>25.7</v>
       </c>
       <c r="O43" s="4">
@@ -3712,7 +3724,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43233</v>
       </c>
@@ -3743,16 +3755,16 @@
       <c r="J44" s="4">
         <v>22.6</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="6">
         <v>25.7</v>
       </c>
-      <c r="L44" s="4">
+      <c r="L44" s="6">
         <v>25.8</v>
       </c>
-      <c r="M44" s="4">
+      <c r="M44" s="6">
         <v>26.9</v>
       </c>
-      <c r="N44" s="4">
+      <c r="N44" s="6">
         <v>28.3</v>
       </c>
       <c r="O44" s="4">
@@ -3789,7 +3801,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43234</v>
       </c>
@@ -3820,16 +3832,16 @@
       <c r="J45" s="4">
         <v>20.8</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="6">
         <v>23.7</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L45" s="6">
         <v>23</v>
       </c>
-      <c r="M45" s="4">
+      <c r="M45" s="6">
         <v>26.1</v>
       </c>
-      <c r="N45" s="4">
+      <c r="N45" s="6">
         <v>26.1</v>
       </c>
       <c r="O45" s="4">
@@ -3866,7 +3878,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43235</v>
       </c>
@@ -3897,16 +3909,16 @@
       <c r="J46" s="4">
         <v>23.7</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="6">
         <v>25.8</v>
       </c>
-      <c r="L46" s="4">
+      <c r="L46" s="6">
         <v>25.5</v>
       </c>
-      <c r="M46" s="4">
+      <c r="M46" s="6">
         <v>26.9</v>
       </c>
-      <c r="N46" s="4">
+      <c r="N46" s="6">
         <v>28.8</v>
       </c>
       <c r="O46" s="4">
@@ -3943,7 +3955,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43236</v>
       </c>
@@ -3974,16 +3986,16 @@
       <c r="J47" s="4">
         <v>21.7</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K47" s="6">
         <v>25.5</v>
       </c>
-      <c r="L47" s="4">
+      <c r="L47" s="6">
         <v>24.7</v>
       </c>
-      <c r="M47" s="4">
+      <c r="M47" s="6">
         <v>24.8</v>
       </c>
-      <c r="N47" s="4">
+      <c r="N47" s="6">
         <v>27.6</v>
       </c>
       <c r="O47" s="4">
@@ -4020,7 +4032,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43237</v>
       </c>
@@ -4051,16 +4063,16 @@
       <c r="J48" s="4">
         <v>23</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K48" s="6">
         <v>25.9</v>
       </c>
-      <c r="L48" s="4">
+      <c r="L48" s="6">
         <v>26.9</v>
       </c>
-      <c r="M48" s="4">
+      <c r="M48" s="6">
         <v>26.3</v>
       </c>
-      <c r="N48" s="4">
+      <c r="N48" s="6">
         <v>28.5</v>
       </c>
       <c r="O48" s="4">
@@ -4097,7 +4109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43238</v>
       </c>
@@ -4128,16 +4140,16 @@
       <c r="J49" s="4">
         <v>20.6</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K49" s="6">
         <v>22.2</v>
       </c>
-      <c r="L49" s="4">
+      <c r="L49" s="6">
         <v>25.5</v>
       </c>
-      <c r="M49" s="4">
+      <c r="M49" s="6">
         <v>27.5</v>
       </c>
-      <c r="N49" s="4">
+      <c r="N49" s="6">
         <v>25</v>
       </c>
       <c r="O49" s="4">
@@ -4174,7 +4186,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43239</v>
       </c>
@@ -4205,16 +4217,16 @@
       <c r="J50" s="4">
         <v>21.3</v>
       </c>
-      <c r="K50" s="4">
+      <c r="K50" s="6">
         <v>26</v>
       </c>
-      <c r="L50" s="4">
+      <c r="L50" s="6">
         <v>26.1</v>
       </c>
-      <c r="M50" s="4">
+      <c r="M50" s="6">
         <v>26.5</v>
       </c>
-      <c r="N50" s="4">
+      <c r="N50" s="6">
         <v>25.7</v>
       </c>
       <c r="O50" s="4">
@@ -4251,7 +4263,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43240</v>
       </c>
@@ -4282,16 +4294,16 @@
       <c r="J51" s="4">
         <v>21.1</v>
       </c>
-      <c r="K51" s="4">
+      <c r="K51" s="6">
         <v>25.6</v>
       </c>
-      <c r="L51" s="4">
+      <c r="L51" s="6">
         <v>25.8</v>
       </c>
-      <c r="M51" s="4">
+      <c r="M51" s="6">
         <v>24.2</v>
       </c>
-      <c r="N51" s="4">
+      <c r="N51" s="6">
         <v>25.7</v>
       </c>
       <c r="O51" s="4">
@@ -4328,7 +4340,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43241</v>
       </c>
@@ -4359,16 +4371,16 @@
       <c r="J52" s="4">
         <v>20.399999999999999</v>
       </c>
-      <c r="K52" s="4">
+      <c r="K52" s="6">
         <v>25.7</v>
       </c>
-      <c r="L52" s="4">
+      <c r="L52" s="6">
         <v>23</v>
       </c>
-      <c r="M52" s="4">
+      <c r="M52" s="6">
         <v>27.7</v>
       </c>
-      <c r="N52" s="4">
+      <c r="N52" s="6">
         <v>27.8</v>
       </c>
       <c r="O52" s="4">
@@ -4405,7 +4417,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43242</v>
       </c>
@@ -4436,16 +4448,16 @@
       <c r="J53" s="4">
         <v>24</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K53" s="6">
         <v>22</v>
       </c>
-      <c r="L53" s="4">
+      <c r="L53" s="6">
         <v>23.2</v>
       </c>
-      <c r="M53" s="4">
+      <c r="M53" s="6">
         <v>24.3</v>
       </c>
-      <c r="N53" s="4">
+      <c r="N53" s="6">
         <v>27.5</v>
       </c>
       <c r="O53" s="4">
@@ -4482,7 +4494,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43243</v>
       </c>
@@ -4513,16 +4525,16 @@
       <c r="J54" s="4">
         <v>22.8</v>
       </c>
-      <c r="K54" s="4">
+      <c r="K54" s="6">
         <v>23.5</v>
       </c>
-      <c r="L54" s="4">
+      <c r="L54" s="6">
         <v>25.8</v>
       </c>
-      <c r="M54" s="4">
+      <c r="M54" s="6">
         <v>27.2</v>
       </c>
-      <c r="N54" s="4">
+      <c r="N54" s="6">
         <v>28.3</v>
       </c>
       <c r="O54" s="4">
@@ -4559,7 +4571,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43244</v>
       </c>
@@ -4590,16 +4602,16 @@
       <c r="J55" s="4">
         <v>23.7</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K55" s="6">
         <v>24.3</v>
       </c>
-      <c r="L55" s="4">
+      <c r="L55" s="6">
         <v>23.3</v>
       </c>
-      <c r="M55" s="4">
+      <c r="M55" s="6">
         <v>24.8</v>
       </c>
-      <c r="N55" s="4">
+      <c r="N55" s="6">
         <v>25.2</v>
       </c>
       <c r="O55" s="4">
@@ -4636,7 +4648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43245</v>
       </c>
@@ -4667,16 +4679,16 @@
       <c r="J56" s="4">
         <v>23.3</v>
       </c>
-      <c r="K56" s="4">
+      <c r="K56" s="6">
         <v>24.7</v>
       </c>
-      <c r="L56" s="4">
+      <c r="L56" s="6">
         <v>26.6</v>
       </c>
-      <c r="M56" s="4">
+      <c r="M56" s="6">
         <v>24.4</v>
       </c>
-      <c r="N56" s="4">
+      <c r="N56" s="6">
         <v>28.5</v>
       </c>
       <c r="O56" s="4">
@@ -4713,7 +4725,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43246</v>
       </c>
@@ -4744,16 +4756,16 @@
       <c r="J57" s="4">
         <v>23.7</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K57" s="6">
         <v>23.9</v>
       </c>
-      <c r="L57" s="4">
+      <c r="L57" s="6">
         <v>26.3</v>
       </c>
-      <c r="M57" s="4">
+      <c r="M57" s="6">
         <v>26</v>
       </c>
-      <c r="N57" s="4">
+      <c r="N57" s="6">
         <v>25.1</v>
       </c>
       <c r="O57" s="4">
@@ -4790,7 +4802,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43247</v>
       </c>
@@ -4821,16 +4833,16 @@
       <c r="J58" s="4">
         <v>22.3</v>
       </c>
-      <c r="K58" s="4">
+      <c r="K58" s="6">
         <v>22.5</v>
       </c>
-      <c r="L58" s="4">
+      <c r="L58" s="6">
         <v>25.8</v>
       </c>
-      <c r="M58" s="4">
+      <c r="M58" s="6">
         <v>25.5</v>
       </c>
-      <c r="N58" s="4">
+      <c r="N58" s="6">
         <v>26.3</v>
       </c>
       <c r="O58" s="4">
@@ -4867,7 +4879,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43248</v>
       </c>
@@ -4898,16 +4910,16 @@
       <c r="J59" s="4">
         <v>21.6</v>
       </c>
-      <c r="K59" s="4">
+      <c r="K59" s="6">
         <v>23</v>
       </c>
-      <c r="L59" s="4">
+      <c r="L59" s="6">
         <v>25.9</v>
       </c>
-      <c r="M59" s="4">
+      <c r="M59" s="6">
         <v>27.9</v>
       </c>
-      <c r="N59" s="4">
+      <c r="N59" s="6">
         <v>25.3</v>
       </c>
       <c r="O59" s="4">
@@ -4944,7 +4956,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43249</v>
       </c>
@@ -4975,16 +4987,16 @@
       <c r="J60" s="4">
         <v>22.3</v>
       </c>
-      <c r="K60" s="4">
+      <c r="K60" s="6">
         <v>24.4</v>
       </c>
-      <c r="L60" s="4">
+      <c r="L60" s="6">
         <v>24.6</v>
       </c>
-      <c r="M60" s="4">
+      <c r="M60" s="6">
         <v>27.1</v>
       </c>
-      <c r="N60" s="4">
+      <c r="N60" s="6">
         <v>26.5</v>
       </c>
       <c r="O60" s="4">
@@ -5021,7 +5033,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43250</v>
       </c>
@@ -5052,16 +5064,16 @@
       <c r="J61" s="4">
         <v>23.7</v>
       </c>
-      <c r="K61" s="4">
+      <c r="K61" s="6">
         <v>23.4</v>
       </c>
-      <c r="L61" s="4">
+      <c r="L61" s="6">
         <v>23.1</v>
       </c>
-      <c r="M61" s="4">
+      <c r="M61" s="6">
         <v>27.4</v>
       </c>
-      <c r="N61" s="4">
+      <c r="N61" s="6">
         <v>26.9</v>
       </c>
       <c r="O61" s="4">
@@ -5098,7 +5110,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43251</v>
       </c>
@@ -5129,16 +5141,16 @@
       <c r="J62" s="4">
         <v>21.4</v>
       </c>
-      <c r="K62" s="4">
+      <c r="K62" s="6">
         <v>25.2</v>
       </c>
-      <c r="L62" s="4">
+      <c r="L62" s="6">
         <v>26.7</v>
       </c>
-      <c r="M62" s="4">
+      <c r="M62" s="6">
         <v>27.5</v>
       </c>
-      <c r="N62" s="4">
+      <c r="N62" s="6">
         <v>26.4</v>
       </c>
       <c r="O62" s="4">
@@ -5175,7 +5187,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43252</v>
       </c>
@@ -5206,16 +5218,16 @@
       <c r="J63" s="4">
         <v>27.2</v>
       </c>
-      <c r="K63" s="4">
+      <c r="K63" s="6">
         <v>31.2</v>
       </c>
-      <c r="L63" s="4">
+      <c r="L63" s="6">
         <v>31.7</v>
       </c>
-      <c r="M63" s="4">
+      <c r="M63" s="6">
         <v>33.9</v>
       </c>
-      <c r="N63" s="4">
+      <c r="N63" s="6">
         <v>33.4</v>
       </c>
       <c r="O63" s="4">
@@ -5252,7 +5264,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43253</v>
       </c>
@@ -5283,16 +5295,16 @@
       <c r="J64" s="4">
         <v>29</v>
       </c>
-      <c r="K64" s="4">
+      <c r="K64" s="6">
         <v>29.7</v>
       </c>
-      <c r="L64" s="4">
+      <c r="L64" s="6">
         <v>33.4</v>
       </c>
-      <c r="M64" s="4">
+      <c r="M64" s="6">
         <v>34.200000000000003</v>
       </c>
-      <c r="N64" s="4">
+      <c r="N64" s="6">
         <v>34.799999999999997</v>
       </c>
       <c r="O64" s="4">
@@ -5329,7 +5341,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43254</v>
       </c>
@@ -5360,16 +5372,16 @@
       <c r="J65" s="4">
         <v>29.1</v>
       </c>
-      <c r="K65" s="4">
+      <c r="K65" s="6">
         <v>32.4</v>
       </c>
-      <c r="L65" s="4">
+      <c r="L65" s="6">
         <v>32.700000000000003</v>
       </c>
-      <c r="M65" s="4">
+      <c r="M65" s="6">
         <v>31.6</v>
       </c>
-      <c r="N65" s="4">
+      <c r="N65" s="6">
         <v>35.4</v>
       </c>
       <c r="O65" s="4">
@@ -5406,7 +5418,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43255</v>
       </c>
@@ -5437,16 +5449,16 @@
       <c r="J66" s="4">
         <v>29.1</v>
       </c>
-      <c r="K66" s="4">
+      <c r="K66" s="6">
         <v>30.4</v>
       </c>
-      <c r="L66" s="4">
+      <c r="L66" s="6">
         <v>31.7</v>
       </c>
-      <c r="M66" s="4">
+      <c r="M66" s="6">
         <v>33.5</v>
       </c>
-      <c r="N66" s="4">
+      <c r="N66" s="6">
         <v>33.1</v>
       </c>
       <c r="O66" s="4">
@@ -5483,7 +5495,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43256</v>
       </c>
@@ -5514,16 +5526,16 @@
       <c r="J67" s="4">
         <v>27.6</v>
       </c>
-      <c r="K67" s="4">
+      <c r="K67" s="6">
         <v>31.9</v>
       </c>
-      <c r="L67" s="4">
+      <c r="L67" s="6">
         <v>33.799999999999997</v>
       </c>
-      <c r="M67" s="4">
+      <c r="M67" s="6">
         <v>33.200000000000003</v>
       </c>
-      <c r="N67" s="4">
+      <c r="N67" s="6">
         <v>33.1</v>
       </c>
       <c r="O67" s="4">
@@ -5560,7 +5572,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43257</v>
       </c>
@@ -5591,16 +5603,16 @@
       <c r="J68" s="4">
         <v>28.2</v>
       </c>
-      <c r="K68" s="4">
+      <c r="K68" s="6">
         <v>32</v>
       </c>
-      <c r="L68" s="4">
+      <c r="L68" s="6">
         <v>30.1</v>
       </c>
-      <c r="M68" s="4">
+      <c r="M68" s="6">
         <v>33.1</v>
       </c>
-      <c r="N68" s="4">
+      <c r="N68" s="6">
         <v>34.6</v>
       </c>
       <c r="O68" s="4">
@@ -5637,7 +5649,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43258</v>
       </c>
@@ -5668,16 +5680,16 @@
       <c r="J69" s="4">
         <v>28.5</v>
       </c>
-      <c r="K69" s="4">
+      <c r="K69" s="6">
         <v>31</v>
       </c>
-      <c r="L69" s="4">
+      <c r="L69" s="6">
         <v>31.2</v>
       </c>
-      <c r="M69" s="4">
+      <c r="M69" s="6">
         <v>32.299999999999997</v>
       </c>
-      <c r="N69" s="4">
+      <c r="N69" s="6">
         <v>34.200000000000003</v>
       </c>
       <c r="O69" s="4">
@@ -5714,7 +5726,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43259</v>
       </c>
@@ -5745,16 +5757,16 @@
       <c r="J70" s="4">
         <v>28.8</v>
       </c>
-      <c r="K70" s="4">
+      <c r="K70" s="6">
         <v>30</v>
       </c>
-      <c r="L70" s="4">
+      <c r="L70" s="6">
         <v>33.700000000000003</v>
       </c>
-      <c r="M70" s="4">
+      <c r="M70" s="6">
         <v>34.1</v>
       </c>
-      <c r="N70" s="4">
+      <c r="N70" s="6">
         <v>33.799999999999997</v>
       </c>
       <c r="O70" s="4">
@@ -5791,7 +5803,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>43260</v>
       </c>
@@ -5822,16 +5834,16 @@
       <c r="J71" s="4">
         <v>28</v>
       </c>
-      <c r="K71" s="4">
+      <c r="K71" s="6">
         <v>30.5</v>
       </c>
-      <c r="L71" s="4">
+      <c r="L71" s="6">
         <v>34</v>
       </c>
-      <c r="M71" s="4">
+      <c r="M71" s="6">
         <v>34.299999999999997</v>
       </c>
-      <c r="N71" s="4">
+      <c r="N71" s="6">
         <v>35.299999999999997</v>
       </c>
       <c r="O71" s="4">
@@ -5868,7 +5880,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43261</v>
       </c>
@@ -5899,16 +5911,16 @@
       <c r="J72" s="4">
         <v>31</v>
       </c>
-      <c r="K72" s="4">
+      <c r="K72" s="6">
         <v>32.1</v>
       </c>
-      <c r="L72" s="4">
+      <c r="L72" s="6">
         <v>31.4</v>
       </c>
-      <c r="M72" s="4">
+      <c r="M72" s="6">
         <v>34.200000000000003</v>
       </c>
-      <c r="N72" s="4">
+      <c r="N72" s="6">
         <v>32.9</v>
       </c>
       <c r="O72" s="4">
@@ -5945,7 +5957,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43262</v>
       </c>
@@ -5976,16 +5988,16 @@
       <c r="J73" s="4">
         <v>29.3</v>
       </c>
-      <c r="K73" s="4">
+      <c r="K73" s="6">
         <v>32.1</v>
       </c>
-      <c r="L73" s="4">
+      <c r="L73" s="6">
         <v>32.4</v>
       </c>
-      <c r="M73" s="4">
+      <c r="M73" s="6">
         <v>32.200000000000003</v>
       </c>
-      <c r="N73" s="4">
+      <c r="N73" s="6">
         <v>32.700000000000003</v>
       </c>
       <c r="O73" s="4">
@@ -6022,7 +6034,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43263</v>
       </c>
@@ -6053,16 +6065,16 @@
       <c r="J74" s="4">
         <v>27.8</v>
       </c>
-      <c r="K74" s="4">
+      <c r="K74" s="6">
         <v>32.200000000000003</v>
       </c>
-      <c r="L74" s="4">
+      <c r="L74" s="6">
         <v>33.6</v>
       </c>
-      <c r="M74" s="4">
+      <c r="M74" s="6">
         <v>34.6</v>
       </c>
-      <c r="N74" s="4">
+      <c r="N74" s="6">
         <v>35.6</v>
       </c>
       <c r="O74" s="4">
@@ -6099,7 +6111,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>43264</v>
       </c>
@@ -6130,16 +6142,16 @@
       <c r="J75" s="4">
         <v>27.2</v>
       </c>
-      <c r="K75" s="4">
+      <c r="K75" s="6">
         <v>29.8</v>
       </c>
-      <c r="L75" s="4">
+      <c r="L75" s="6">
         <v>33.6</v>
       </c>
-      <c r="M75" s="4">
+      <c r="M75" s="6">
         <v>33.299999999999997</v>
       </c>
-      <c r="N75" s="4">
+      <c r="N75" s="6">
         <v>33.1</v>
       </c>
       <c r="O75" s="4">
@@ -6176,7 +6188,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>43265</v>
       </c>
@@ -6207,16 +6219,16 @@
       <c r="J76" s="4">
         <v>30.6</v>
       </c>
-      <c r="K76" s="4">
+      <c r="K76" s="6">
         <v>30</v>
       </c>
-      <c r="L76" s="4">
+      <c r="L76" s="6">
         <v>32.299999999999997</v>
       </c>
-      <c r="M76" s="4">
+      <c r="M76" s="6">
         <v>33.5</v>
       </c>
-      <c r="N76" s="4">
+      <c r="N76" s="6">
         <v>33.5</v>
       </c>
       <c r="O76" s="4">
@@ -6253,7 +6265,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>43266</v>
       </c>
@@ -6284,16 +6296,16 @@
       <c r="J77" s="4">
         <v>27.9</v>
       </c>
-      <c r="K77" s="4">
+      <c r="K77" s="6">
         <v>33</v>
       </c>
-      <c r="L77" s="4">
+      <c r="L77" s="6">
         <v>33.700000000000003</v>
       </c>
-      <c r="M77" s="4">
+      <c r="M77" s="6">
         <v>31</v>
       </c>
-      <c r="N77" s="4">
+      <c r="N77" s="6">
         <v>34.799999999999997</v>
       </c>
       <c r="O77" s="4">
@@ -6330,7 +6342,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>43267</v>
       </c>
@@ -6361,16 +6373,16 @@
       <c r="J78" s="4">
         <v>30.4</v>
       </c>
-      <c r="K78" s="4">
+      <c r="K78" s="6">
         <v>32.5</v>
       </c>
-      <c r="L78" s="4">
+      <c r="L78" s="6">
         <v>30.9</v>
       </c>
-      <c r="M78" s="4">
+      <c r="M78" s="6">
         <v>34.200000000000003</v>
       </c>
-      <c r="N78" s="4">
+      <c r="N78" s="6">
         <v>32.200000000000003</v>
       </c>
       <c r="O78" s="4">
@@ -6407,7 +6419,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43268</v>
       </c>
@@ -6438,16 +6450,16 @@
       <c r="J79" s="4">
         <v>29.6</v>
       </c>
-      <c r="K79" s="4">
+      <c r="K79" s="6">
         <v>29.8</v>
       </c>
-      <c r="L79" s="4">
+      <c r="L79" s="6">
         <v>30.5</v>
       </c>
-      <c r="M79" s="4">
+      <c r="M79" s="6">
         <v>31.2</v>
       </c>
-      <c r="N79" s="4">
+      <c r="N79" s="6">
         <v>35.299999999999997</v>
       </c>
       <c r="O79" s="4">
@@ -6484,7 +6496,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>43269</v>
       </c>
@@ -6515,16 +6527,16 @@
       <c r="J80" s="4">
         <v>30.5</v>
       </c>
-      <c r="K80" s="4">
+      <c r="K80" s="6">
         <v>31.3</v>
       </c>
-      <c r="L80" s="4">
+      <c r="L80" s="6">
         <v>31.6</v>
       </c>
-      <c r="M80" s="4">
+      <c r="M80" s="6">
         <v>34.1</v>
       </c>
-      <c r="N80" s="4">
+      <c r="N80" s="6">
         <v>33.1</v>
       </c>
       <c r="O80" s="4">
@@ -6561,7 +6573,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>43270</v>
       </c>
@@ -6592,16 +6604,16 @@
       <c r="J81" s="4">
         <v>29.1</v>
       </c>
-      <c r="K81" s="4">
+      <c r="K81" s="6">
         <v>29.5</v>
       </c>
-      <c r="L81" s="4">
+      <c r="L81" s="6">
         <v>30.7</v>
       </c>
-      <c r="M81" s="4">
+      <c r="M81" s="6">
         <v>31.5</v>
       </c>
-      <c r="N81" s="4">
+      <c r="N81" s="6">
         <v>34.299999999999997</v>
       </c>
       <c r="O81" s="4">
@@ -6638,7 +6650,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>43271</v>
       </c>
@@ -6669,16 +6681,16 @@
       <c r="J82" s="4">
         <v>27.1</v>
       </c>
-      <c r="K82" s="4">
+      <c r="K82" s="6">
         <v>29.6</v>
       </c>
-      <c r="L82" s="4">
+      <c r="L82" s="6">
         <v>33.799999999999997</v>
       </c>
-      <c r="M82" s="4">
+      <c r="M82" s="6">
         <v>31.9</v>
       </c>
-      <c r="N82" s="4">
+      <c r="N82" s="6">
         <v>35.1</v>
       </c>
       <c r="O82" s="4">
@@ -6715,7 +6727,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43272</v>
       </c>
@@ -6746,16 +6758,16 @@
       <c r="J83" s="4">
         <v>29.6</v>
       </c>
-      <c r="K83" s="4">
+      <c r="K83" s="6">
         <v>30.2</v>
       </c>
-      <c r="L83" s="4">
+      <c r="L83" s="6">
         <v>33.799999999999997</v>
       </c>
-      <c r="M83" s="4">
+      <c r="M83" s="6">
         <v>31.5</v>
       </c>
-      <c r="N83" s="4">
+      <c r="N83" s="6">
         <v>35.4</v>
       </c>
       <c r="O83" s="4">
@@ -6792,7 +6804,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43273</v>
       </c>
@@ -6823,16 +6835,16 @@
       <c r="J84" s="4">
         <v>30.7</v>
       </c>
-      <c r="K84" s="4">
+      <c r="K84" s="6">
         <v>29.6</v>
       </c>
-      <c r="L84" s="4">
+      <c r="L84" s="6">
         <v>32.1</v>
       </c>
-      <c r="M84" s="4">
+      <c r="M84" s="6">
         <v>31.5</v>
       </c>
-      <c r="N84" s="4">
+      <c r="N84" s="6">
         <v>35.1</v>
       </c>
       <c r="O84" s="4">
@@ -6869,7 +6881,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>43274</v>
       </c>
@@ -6900,16 +6912,16 @@
       <c r="J85" s="4">
         <v>28.5</v>
       </c>
-      <c r="K85" s="4">
+      <c r="K85" s="6">
         <v>29.5</v>
       </c>
-      <c r="L85" s="4">
+      <c r="L85" s="6">
         <v>33.200000000000003</v>
       </c>
-      <c r="M85" s="4">
+      <c r="M85" s="6">
         <v>33.799999999999997</v>
       </c>
-      <c r="N85" s="4">
+      <c r="N85" s="6">
         <v>33.1</v>
       </c>
       <c r="O85" s="4">
@@ -6946,7 +6958,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>43275</v>
       </c>
@@ -6977,16 +6989,16 @@
       <c r="J86" s="4">
         <v>31</v>
       </c>
-      <c r="K86" s="4">
+      <c r="K86" s="6">
         <v>30.3</v>
       </c>
-      <c r="L86" s="4">
+      <c r="L86" s="6">
         <v>32.200000000000003</v>
       </c>
-      <c r="M86" s="4">
+      <c r="M86" s="6">
         <v>34.6</v>
       </c>
-      <c r="N86" s="4">
+      <c r="N86" s="6">
         <v>32.799999999999997</v>
       </c>
       <c r="O86" s="4">
@@ -7023,7 +7035,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>43276</v>
       </c>
@@ -7054,16 +7066,16 @@
       <c r="J87" s="4">
         <v>30.4</v>
       </c>
-      <c r="K87" s="4">
+      <c r="K87" s="6">
         <v>29.3</v>
       </c>
-      <c r="L87" s="4">
+      <c r="L87" s="6">
         <v>30.8</v>
       </c>
-      <c r="M87" s="4">
+      <c r="M87" s="6">
         <v>33.5</v>
       </c>
-      <c r="N87" s="4">
+      <c r="N87" s="6">
         <v>35.200000000000003</v>
       </c>
       <c r="O87" s="4">
@@ -7100,7 +7112,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>43277</v>
       </c>
@@ -7131,16 +7143,16 @@
       <c r="J88" s="4">
         <v>29.3</v>
       </c>
-      <c r="K88" s="4">
+      <c r="K88" s="6">
         <v>31.9</v>
       </c>
-      <c r="L88" s="4">
+      <c r="L88" s="6">
         <v>34</v>
       </c>
-      <c r="M88" s="4">
+      <c r="M88" s="6">
         <v>31.6</v>
       </c>
-      <c r="N88" s="4">
+      <c r="N88" s="6">
         <v>32.200000000000003</v>
       </c>
       <c r="O88" s="4">
@@ -7177,7 +7189,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43278</v>
       </c>
@@ -7208,16 +7220,16 @@
       <c r="J89" s="4">
         <v>28.1</v>
       </c>
-      <c r="K89" s="4">
+      <c r="K89" s="6">
         <v>29.7</v>
       </c>
-      <c r="L89" s="4">
+      <c r="L89" s="6">
         <v>32.799999999999997</v>
       </c>
-      <c r="M89" s="4">
+      <c r="M89" s="6">
         <v>31.2</v>
       </c>
-      <c r="N89" s="4">
+      <c r="N89" s="6">
         <v>32.200000000000003</v>
       </c>
       <c r="O89" s="4">
@@ -7254,7 +7266,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>43279</v>
       </c>
@@ -7285,16 +7297,16 @@
       <c r="J90" s="4">
         <v>30.9</v>
       </c>
-      <c r="K90" s="4">
+      <c r="K90" s="6">
         <v>29.3</v>
       </c>
-      <c r="L90" s="4">
+      <c r="L90" s="6">
         <v>31.2</v>
       </c>
-      <c r="M90" s="4">
+      <c r="M90" s="6">
         <v>34.9</v>
       </c>
-      <c r="N90" s="4">
+      <c r="N90" s="6">
         <v>33.9</v>
       </c>
       <c r="O90" s="4">
@@ -7331,7 +7343,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>43280</v>
       </c>
@@ -7362,16 +7374,16 @@
       <c r="J91" s="4">
         <v>30.4</v>
       </c>
-      <c r="K91" s="4">
+      <c r="K91" s="6">
         <v>29.7</v>
       </c>
-      <c r="L91" s="4">
+      <c r="L91" s="6">
         <v>33.700000000000003</v>
       </c>
-      <c r="M91" s="4">
+      <c r="M91" s="6">
         <v>33</v>
       </c>
-      <c r="N91" s="4">
+      <c r="N91" s="6">
         <v>32.700000000000003</v>
       </c>
       <c r="O91" s="4">
@@ -7408,7 +7420,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>43281</v>
       </c>
@@ -7439,16 +7451,16 @@
       <c r="J92" s="4">
         <v>28.9</v>
       </c>
-      <c r="K92" s="4">
+      <c r="K92" s="6">
         <v>31.5</v>
       </c>
-      <c r="L92" s="4">
+      <c r="L92" s="6">
         <v>31.3</v>
       </c>
-      <c r="M92" s="4">
+      <c r="M92" s="6">
         <v>33.4</v>
       </c>
-      <c r="N92" s="4">
+      <c r="N92" s="6">
         <v>35.5</v>
       </c>
       <c r="O92" s="4">
@@ -7485,21 +7497,36 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K94" s="4">
+        <f xml:space="preserve"> MAX(K32:N92)</f>
+        <v>35.6</v>
+      </c>
+      <c r="L94" s="4">
+        <f xml:space="preserve"> AVERAGE(K32:N92)</f>
+        <v>28.929918032786897</v>
+      </c>
+      <c r="M94" s="7">
+        <f>K94-L94</f>
+        <v>6.670081967213104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="3:4">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" s="5"/>
     </row>
-    <row r="105" spans="3:4">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>